--- a/experiment_results/SBFL_ONLY/INVOLVING_FEATURES/ZipMe/ZipMe_involving_features.xlsx
+++ b/experiment_results/SBFL_ONLY/INVOLVING_FEATURES/ZipMe/ZipMe_involving_features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuanngokien/Desktop/Software_Analysis/configurable_system/InputPreparation/experiment_results/SBFL_ONLY/INVOLVING_FEATURES/ZipMe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9392CE-F079-954B-B4D5-54D88C4EACE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C28907-1249-7446-9002-C377867FBE1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{5F3CF524-7F07-7746-9004-BC723620B2EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -78,9 +78,6 @@
     <t>_MultipleBugs_.NOB_1.ID_74</t>
   </si>
   <si>
-    <t>_MultipleBugs_.NOB_1.ID_134</t>
-  </si>
-  <si>
     <t>_MultipleBugs_.NOB_1.ID_153</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
   </si>
   <si>
     <t>["GZIP"]</t>
-  </si>
-  <si>
-    <t>["Extract"]</t>
   </si>
   <si>
     <t>["Base"]</t>
@@ -627,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0F4B4A-E497-FB4F-821A-ED71AB9329AE}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <f>1+ LEN(B2)-LEN(SUBSTITUTE(B2,",",""))</f>
@@ -668,10 +662,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C57" si="0">1+ LEN(B3)-LEN(SUBSTITUTE(B3,",",""))</f>
+        <f t="shared" ref="C3:C56" si="0">1+ LEN(B3)-LEN(SUBSTITUTE(B3,",",""))</f>
         <v>1</v>
       </c>
     </row>
@@ -680,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -692,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -704,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -716,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -728,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -740,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -752,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -764,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -775,20 +769,20 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>63</v>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
+      <c r="B13" t="s">
+        <v>65</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -800,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -812,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -824,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -836,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -848,7 +842,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -857,22 +851,22 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -884,7 +878,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -896,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -908,11 +902,11 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,11 +914,11 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,11 +926,11 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -944,7 +938,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -956,7 +950,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -968,7 +962,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -980,7 +974,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -992,11 +986,11 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,31 +998,31 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -1040,7 +1034,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -1052,7 +1046,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -1064,7 +1058,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -1076,7 +1070,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -1085,10 +1079,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -1097,10 +1091,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -1112,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -1124,11 +1118,11 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,11 +1130,11 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1148,35 +1142,35 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1184,11 +1178,11 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1196,11 +1190,11 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,11 +1202,11 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1220,11 +1214,11 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1232,7 +1226,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -1244,11 +1238,11 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,7 +1250,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -1268,7 +1262,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -1280,11 +1274,11 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,11 +1286,11 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,21 +1298,9 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
